--- a/Functional_Test.xlsx
+++ b/Functional_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -973,37 +973,10 @@
     <x:t>Step 9</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is able to input the Next Approver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Send to Next Approver' button.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
+    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is redirected to the Opportunity Page</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_34</x:t>
@@ -1012,10 +985,19 @@
     <x:t>TestScenario_34.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is redirected to the Opportunity Page</x:t>
+    <x:t>View Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Opportunity tab,  and select a Opportunity </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Opportunity Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Opportunity name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Opportunity Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_35</x:t>
@@ -1024,19 +1006,16 @@
     <x:t>TestScenario_35.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Opportunity tab,  and select a Opportunity </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Opportunity Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Opportunity name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Opportunity Details</x:t>
+    <x:t>Edit Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab,  and click on existing Opportunity to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Opportunity Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Opportunity is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_36</x:t>
@@ -1045,16 +1024,22 @@
     <x:t>TestScenario_36.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Opportunity tab,  and click on existing Opportunity to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Opportunity Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Opportunity is edited</x:t>
+    <x:t>Delete Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Opportunity tab,  and select the existing  Opportunity to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Opportunity is deleted</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_37</x:t>
@@ -1063,28 +1048,58 @@
     <x:t>TestScenario_37.TestCase_1</x:t>
   </x:si>
   <x:si>
+    <x:t>New Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Order Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Contract Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Contract Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Contract Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Order Start Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Order Start Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Order Start Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Order with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Order is created</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_38</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_38.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Delete Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Opportunity tab,  and select the existing  Opportunity to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Opportunity is deleted</x:t>
+    <x:t>View Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Order tab,  and select a Order </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Order Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Order name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Order Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_39</x:t>
@@ -1093,37 +1108,16 @@
     <x:t>TestScenario_39.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Order tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Order Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Contract Number </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Contract Number field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Contract Number field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Order Start Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Order Start Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Order Start Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Order with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Order is created</x:t>
+    <x:t>Edit Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab,  and click on existing Order to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Order Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Order is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_40</x:t>
@@ -1132,19 +1126,22 @@
     <x:t>TestScenario_40.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Order tab,  and select a Order </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Order Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Order name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Order Details</x:t>
+    <x:t>Delete Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Order tab,  and select the existing  Order to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Order is deleted</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_41</x:t>
@@ -1153,16 +1150,19 @@
     <x:t>TestScenario_41.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Order tab,  and click on existing Order to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Order Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Order is edited</x:t>
+    <x:t>New Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Task tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Task Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Task with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Task is created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_42</x:t>
@@ -1171,22 +1171,19 @@
     <x:t>TestScenario_42.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Delete Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Order tab,  and select the existing  Order to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Order is deleted</x:t>
+    <x:t>View Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Task tab,  and select a Task </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Task Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Task name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Task Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_43</x:t>
@@ -1195,64 +1192,22 @@
     <x:t>TestScenario_43.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Task tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Task Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Task with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Task is created</x:t>
+    <x:t>Edit Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Task tab,  and click on existing Task to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Task Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Task is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_44</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_44.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Task tab,  and select a Task </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Task Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Task name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Task Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_45.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Task tab,  and click on existing Task to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Task Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Task is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_46.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Delete Task</x:t>
@@ -1354,8 +1309,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J200" totalsRowShown="0">
-  <x:autoFilter ref="A1:J200"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J176" totalsRowShown="0">
+  <x:autoFilter ref="A1:J176"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -1660,7 +1615,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J200"/>
+  <x:dimension ref="A1:J176"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1671,9 +1626,9 @@
     <x:col min="3" max="3" width="20.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="124.84062499999999" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="79.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="97.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -4363,19 +4318,27 @@
       <x:c r="J128" s="0" t="s"/>
     </x:row>
     <x:row r="129" spans="1:10">
-      <x:c r="A129" s="0" t="s"/>
-      <x:c r="B129" s="0" t="s"/>
-      <x:c r="C129" s="0" t="s"/>
-      <x:c r="D129" s="0" t="s"/>
+      <x:c r="A129" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E129" s="0" t="s"/>
       <x:c r="F129" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G129" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H129" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="I129" s="0" t="s"/>
       <x:c r="J129" s="0" t="s"/>
@@ -4387,57 +4350,59 @@
       <x:c r="D130" s="0" t="s"/>
       <x:c r="E130" s="0" t="s"/>
       <x:c r="F130" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G130" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="H130" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="I130" s="0" t="s"/>
       <x:c r="J130" s="0" t="s"/>
     </x:row>
     <x:row r="131" spans="1:10">
-      <x:c r="A131" s="0" t="s"/>
-      <x:c r="B131" s="0" t="s"/>
-      <x:c r="C131" s="0" t="s"/>
-      <x:c r="D131" s="0" t="s"/>
+      <x:c r="A131" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E131" s="0" t="s"/>
       <x:c r="F131" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G131" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H131" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="I131" s="0" t="s"/>
       <x:c r="J131" s="0" t="s"/>
     </x:row>
     <x:row r="132" spans="1:10">
-      <x:c r="A132" s="0" t="s">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>331</x:v>
-      </x:c>
-      <x:c r="C132" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-      <x:c r="D132" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E132" s="0" t="s"/>
+      <x:c r="A132" s="0" t="s"/>
+      <x:c r="B132" s="0" t="s"/>
+      <x:c r="C132" s="0" t="s"/>
+      <x:c r="D132" s="0" t="s"/>
+      <x:c r="E132" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
       <x:c r="F132" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="H132" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="I132" s="0" t="s"/>
       <x:c r="J132" s="0" t="s"/>
@@ -4448,16 +4413,16 @@
       <x:c r="C133" s="0" t="s"/>
       <x:c r="D133" s="0" t="s"/>
       <x:c r="E133" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F133" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G133" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="H133" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="I133" s="0" t="s"/>
       <x:c r="J133" s="0" t="s"/>
@@ -4468,16 +4433,16 @@
       <x:c r="C134" s="0" t="s"/>
       <x:c r="D134" s="0" t="s"/>
       <x:c r="E134" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F134" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G134" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H134" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="I134" s="0" t="s"/>
       <x:c r="J134" s="0" t="s"/>
@@ -4488,16 +4453,16 @@
       <x:c r="C135" s="0" t="s"/>
       <x:c r="D135" s="0" t="s"/>
       <x:c r="E135" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F135" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G135" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H135" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I135" s="0" t="s"/>
       <x:c r="J135" s="0" t="s"/>
@@ -4508,16 +4473,16 @@
       <x:c r="C136" s="0" t="s"/>
       <x:c r="D136" s="0" t="s"/>
       <x:c r="E136" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F136" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G136" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H136" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I136" s="0" t="s"/>
       <x:c r="J136" s="0" t="s"/>
@@ -4527,17 +4492,15 @@
       <x:c r="B137" s="0" t="s"/>
       <x:c r="C137" s="0" t="s"/>
       <x:c r="D137" s="0" t="s"/>
-      <x:c r="E137" s="0" t="s">
-        <x:v>309</x:v>
-      </x:c>
+      <x:c r="E137" s="0" t="s"/>
       <x:c r="F137" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G137" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H137" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="I137" s="0" t="s"/>
       <x:c r="J137" s="0" t="s"/>
@@ -4549,13 +4512,13 @@
       <x:c r="D138" s="0" t="s"/>
       <x:c r="E138" s="0" t="s"/>
       <x:c r="F138" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="G138" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="H138" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I138" s="0" t="s"/>
       <x:c r="J138" s="0" t="s"/>
@@ -4567,57 +4530,57 @@
       <x:c r="D139" s="0" t="s"/>
       <x:c r="E139" s="0" t="s"/>
       <x:c r="F139" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="G139" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="H139" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I139" s="0" t="s"/>
       <x:c r="J139" s="0" t="s"/>
     </x:row>
     <x:row r="140" spans="1:10">
-      <x:c r="A140" s="0" t="s"/>
-      <x:c r="B140" s="0" t="s"/>
-      <x:c r="C140" s="0" t="s"/>
-      <x:c r="D140" s="0" t="s"/>
+      <x:c r="A140" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E140" s="0" t="s"/>
       <x:c r="F140" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G140" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="H140" s="0" t="s">
         <x:v>332</x:v>
-      </x:c>
-      <x:c r="H140" s="0" t="s">
-        <x:v>333</x:v>
       </x:c>
       <x:c r="I140" s="0" t="s"/>
       <x:c r="J140" s="0" t="s"/>
     </x:row>
     <x:row r="141" spans="1:10">
-      <x:c r="A141" s="0" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="C141" s="0" t="s">
-        <x:v>336</x:v>
-      </x:c>
-      <x:c r="D141" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A141" s="0" t="s"/>
+      <x:c r="B141" s="0" t="s"/>
+      <x:c r="C141" s="0" t="s"/>
+      <x:c r="D141" s="0" t="s"/>
       <x:c r="E141" s="0" t="s"/>
       <x:c r="F141" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G141" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="H141" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="I141" s="0" t="s"/>
       <x:c r="J141" s="0" t="s"/>
@@ -4629,26 +4592,26 @@
       <x:c r="D142" s="0" t="s"/>
       <x:c r="E142" s="0" t="s"/>
       <x:c r="F142" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G142" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="H142" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="I142" s="0" t="s"/>
       <x:c r="J142" s="0" t="s"/>
     </x:row>
     <x:row r="143" spans="1:10">
       <x:c r="A143" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
         <x:v>13</x:v>
@@ -4658,10 +4621,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G143" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H143" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="I143" s="0" t="s"/>
       <x:c r="J143" s="0" t="s"/>
@@ -4672,16 +4635,16 @@
       <x:c r="C144" s="0" t="s"/>
       <x:c r="D144" s="0" t="s"/>
       <x:c r="E144" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F144" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G144" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H144" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I144" s="0" t="s"/>
       <x:c r="J144" s="0" t="s"/>
@@ -4692,16 +4655,16 @@
       <x:c r="C145" s="0" t="s"/>
       <x:c r="D145" s="0" t="s"/>
       <x:c r="E145" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="F145" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="G145" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H145" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="I145" s="0" t="s"/>
       <x:c r="J145" s="0" t="s"/>
@@ -4712,16 +4675,16 @@
       <x:c r="C146" s="0" t="s"/>
       <x:c r="D146" s="0" t="s"/>
       <x:c r="E146" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F146" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="G146" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="H146" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="I146" s="0" t="s"/>
       <x:c r="J146" s="0" t="s"/>
@@ -4732,16 +4695,16 @@
       <x:c r="C147" s="0" t="s"/>
       <x:c r="D147" s="0" t="s"/>
       <x:c r="E147" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F147" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="G147" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H147" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I147" s="0" t="s"/>
       <x:c r="J147" s="0" t="s"/>
@@ -4751,35 +4714,41 @@
       <x:c r="B148" s="0" t="s"/>
       <x:c r="C148" s="0" t="s"/>
       <x:c r="D148" s="0" t="s"/>
-      <x:c r="E148" s="0" t="s">
-        <x:v>309</x:v>
-      </x:c>
+      <x:c r="E148" s="0" t="s"/>
       <x:c r="F148" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="G148" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H148" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="I148" s="0" t="s"/>
       <x:c r="J148" s="0" t="s"/>
     </x:row>
     <x:row r="149" spans="1:10">
-      <x:c r="A149" s="0" t="s"/>
-      <x:c r="B149" s="0" t="s"/>
-      <x:c r="C149" s="0" t="s"/>
-      <x:c r="D149" s="0" t="s"/>
+      <x:c r="A149" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E149" s="0" t="s"/>
       <x:c r="F149" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G149" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="H149" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="I149" s="0" t="s"/>
       <x:c r="J149" s="0" t="s"/>
@@ -4791,31 +4760,39 @@
       <x:c r="D150" s="0" t="s"/>
       <x:c r="E150" s="0" t="s"/>
       <x:c r="F150" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G150" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="H150" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="I150" s="0" t="s"/>
       <x:c r="J150" s="0" t="s"/>
     </x:row>
     <x:row r="151" spans="1:10">
-      <x:c r="A151" s="0" t="s"/>
-      <x:c r="B151" s="0" t="s"/>
-      <x:c r="C151" s="0" t="s"/>
-      <x:c r="D151" s="0" t="s"/>
+      <x:c r="A151" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E151" s="0" t="s"/>
       <x:c r="F151" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G151" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H151" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="I151" s="0" t="s"/>
       <x:c r="J151" s="0" t="s"/>
@@ -4825,15 +4802,17 @@
       <x:c r="B152" s="0" t="s"/>
       <x:c r="C152" s="0" t="s"/>
       <x:c r="D152" s="0" t="s"/>
-      <x:c r="E152" s="0" t="s"/>
+      <x:c r="E152" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F152" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G152" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H152" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I152" s="0" t="s"/>
       <x:c r="J152" s="0" t="s"/>
@@ -4843,15 +4822,17 @@
       <x:c r="B153" s="0" t="s"/>
       <x:c r="C153" s="0" t="s"/>
       <x:c r="D153" s="0" t="s"/>
-      <x:c r="E153" s="0" t="s"/>
+      <x:c r="E153" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
       <x:c r="F153" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G153" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H153" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="I153" s="0" t="s"/>
       <x:c r="J153" s="0" t="s"/>
@@ -4861,41 +4842,37 @@
       <x:c r="B154" s="0" t="s"/>
       <x:c r="C154" s="0" t="s"/>
       <x:c r="D154" s="0" t="s"/>
-      <x:c r="E154" s="0" t="s"/>
+      <x:c r="E154" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
       <x:c r="F154" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G154" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="H154" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="I154" s="0" t="s"/>
       <x:c r="J154" s="0" t="s"/>
     </x:row>
     <x:row r="155" spans="1:10">
-      <x:c r="A155" s="0" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="C155" s="0" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="D155" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E155" s="0" t="s"/>
+      <x:c r="A155" s="0" t="s"/>
+      <x:c r="B155" s="0" t="s"/>
+      <x:c r="C155" s="0" t="s"/>
+      <x:c r="D155" s="0" t="s"/>
+      <x:c r="E155" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="F155" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G155" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H155" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I155" s="0" t="s"/>
       <x:c r="J155" s="0" t="s"/>
@@ -4905,37 +4882,41 @@
       <x:c r="B156" s="0" t="s"/>
       <x:c r="C156" s="0" t="s"/>
       <x:c r="D156" s="0" t="s"/>
-      <x:c r="E156" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
+      <x:c r="E156" s="0" t="s"/>
       <x:c r="F156" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G156" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H156" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="I156" s="0" t="s"/>
       <x:c r="J156" s="0" t="s"/>
     </x:row>
     <x:row r="157" spans="1:10">
-      <x:c r="A157" s="0" t="s"/>
-      <x:c r="B157" s="0" t="s"/>
-      <x:c r="C157" s="0" t="s"/>
-      <x:c r="D157" s="0" t="s"/>
-      <x:c r="E157" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
+      <x:c r="A157" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s"/>
       <x:c r="F157" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G157" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="H157" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="I157" s="0" t="s"/>
       <x:c r="J157" s="0" t="s"/>
@@ -4945,17 +4926,15 @@
       <x:c r="B158" s="0" t="s"/>
       <x:c r="C158" s="0" t="s"/>
       <x:c r="D158" s="0" t="s"/>
-      <x:c r="E158" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
+      <x:c r="E158" s="0" t="s"/>
       <x:c r="F158" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G158" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="H158" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="I158" s="0" t="s"/>
       <x:c r="J158" s="0" t="s"/>
@@ -4965,37 +4944,41 @@
       <x:c r="B159" s="0" t="s"/>
       <x:c r="C159" s="0" t="s"/>
       <x:c r="D159" s="0" t="s"/>
-      <x:c r="E159" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E159" s="0" t="s"/>
       <x:c r="F159" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G159" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="H159" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="I159" s="0" t="s"/>
       <x:c r="J159" s="0" t="s"/>
     </x:row>
     <x:row r="160" spans="1:10">
-      <x:c r="A160" s="0" t="s"/>
-      <x:c r="B160" s="0" t="s"/>
-      <x:c r="C160" s="0" t="s"/>
-      <x:c r="D160" s="0" t="s"/>
-      <x:c r="E160" s="0" t="s">
-        <x:v>309</x:v>
-      </x:c>
+      <x:c r="A160" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s"/>
       <x:c r="F160" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="I160" s="0" t="s"/>
       <x:c r="J160" s="0" t="s"/>
@@ -5005,15 +4988,17 @@
       <x:c r="B161" s="0" t="s"/>
       <x:c r="C161" s="0" t="s"/>
       <x:c r="D161" s="0" t="s"/>
-      <x:c r="E161" s="0" t="s"/>
+      <x:c r="E161" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
       <x:c r="F161" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G161" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H161" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I161" s="0" t="s"/>
       <x:c r="J161" s="0" t="s"/>
@@ -5023,15 +5008,17 @@
       <x:c r="B162" s="0" t="s"/>
       <x:c r="C162" s="0" t="s"/>
       <x:c r="D162" s="0" t="s"/>
-      <x:c r="E162" s="0" t="s"/>
+      <x:c r="E162" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
       <x:c r="F162" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G162" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H162" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I162" s="0" t="s"/>
       <x:c r="J162" s="0" t="s"/>
@@ -5041,41 +5028,37 @@
       <x:c r="B163" s="0" t="s"/>
       <x:c r="C163" s="0" t="s"/>
       <x:c r="D163" s="0" t="s"/>
-      <x:c r="E163" s="0" t="s"/>
+      <x:c r="E163" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="F163" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G163" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H163" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I163" s="0" t="s"/>
       <x:c r="J163" s="0" t="s"/>
     </x:row>
     <x:row r="164" spans="1:10">
-      <x:c r="A164" s="0" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>350</x:v>
-      </x:c>
-      <x:c r="C164" s="0" t="s">
-        <x:v>351</x:v>
-      </x:c>
-      <x:c r="D164" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E164" s="0" t="s"/>
+      <x:c r="A164" s="0" t="s"/>
+      <x:c r="B164" s="0" t="s"/>
+      <x:c r="C164" s="0" t="s"/>
+      <x:c r="D164" s="0" t="s"/>
+      <x:c r="E164" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
       <x:c r="F164" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G164" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H164" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I164" s="0" t="s"/>
       <x:c r="J164" s="0" t="s"/>
@@ -5087,77 +5070,83 @@
       <x:c r="D165" s="0" t="s"/>
       <x:c r="E165" s="0" t="s"/>
       <x:c r="F165" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G165" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="H165" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="I165" s="0" t="s"/>
       <x:c r="J165" s="0" t="s"/>
     </x:row>
     <x:row r="166" spans="1:10">
-      <x:c r="A166" s="0" t="s"/>
-      <x:c r="B166" s="0" t="s"/>
-      <x:c r="C166" s="0" t="s"/>
-      <x:c r="D166" s="0" t="s"/>
+      <x:c r="A166" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E166" s="0" t="s"/>
       <x:c r="F166" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G166" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="H166" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="I166" s="0" t="s"/>
       <x:c r="J166" s="0" t="s"/>
     </x:row>
     <x:row r="167" spans="1:10">
-      <x:c r="A167" s="0" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>358</x:v>
-      </x:c>
-      <x:c r="C167" s="0" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="D167" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A167" s="0" t="s"/>
+      <x:c r="B167" s="0" t="s"/>
+      <x:c r="C167" s="0" t="s"/>
+      <x:c r="D167" s="0" t="s"/>
       <x:c r="E167" s="0" t="s"/>
       <x:c r="F167" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G167" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="H167" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="I167" s="0" t="s"/>
       <x:c r="J167" s="0" t="s"/>
     </x:row>
     <x:row r="168" spans="1:10">
-      <x:c r="A168" s="0" t="s"/>
-      <x:c r="B168" s="0" t="s"/>
-      <x:c r="C168" s="0" t="s"/>
-      <x:c r="D168" s="0" t="s"/>
-      <x:c r="E168" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="A168" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="D168" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E168" s="0" t="s"/>
       <x:c r="F168" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G168" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H168" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="I168" s="0" t="s"/>
       <x:c r="J168" s="0" t="s"/>
@@ -5168,16 +5157,16 @@
       <x:c r="C169" s="0" t="s"/>
       <x:c r="D169" s="0" t="s"/>
       <x:c r="E169" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F169" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G169" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H169" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I169" s="0" t="s"/>
       <x:c r="J169" s="0" t="s"/>
@@ -5188,16 +5177,16 @@
       <x:c r="C170" s="0" t="s"/>
       <x:c r="D170" s="0" t="s"/>
       <x:c r="E170" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F170" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G170" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H170" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I170" s="0" t="s"/>
       <x:c r="J170" s="0" t="s"/>
@@ -5211,7 +5200,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="F171" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G171" s="0" t="s">
         <x:v>127</x:v>
@@ -5227,85 +5216,79 @@
       <x:c r="B172" s="0" t="s"/>
       <x:c r="C172" s="0" t="s"/>
       <x:c r="D172" s="0" t="s"/>
-      <x:c r="E172" s="0" t="s"/>
+      <x:c r="E172" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
       <x:c r="F172" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G172" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H172" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I172" s="0" t="s"/>
       <x:c r="J172" s="0" t="s"/>
     </x:row>
     <x:row r="173" spans="1:10">
-      <x:c r="A173" s="0" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="C173" s="0" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="D173" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A173" s="0" t="s"/>
+      <x:c r="B173" s="0" t="s"/>
+      <x:c r="C173" s="0" t="s"/>
+      <x:c r="D173" s="0" t="s"/>
       <x:c r="E173" s="0" t="s"/>
       <x:c r="F173" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G173" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="H173" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="I173" s="0" t="s"/>
       <x:c r="J173" s="0" t="s"/>
     </x:row>
     <x:row r="174" spans="1:10">
-      <x:c r="A174" s="0" t="s"/>
-      <x:c r="B174" s="0" t="s"/>
-      <x:c r="C174" s="0" t="s"/>
-      <x:c r="D174" s="0" t="s"/>
+      <x:c r="A174" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="C174" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="D174" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E174" s="0" t="s"/>
       <x:c r="F174" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G174" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="H174" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="I174" s="0" t="s"/>
       <x:c r="J174" s="0" t="s"/>
     </x:row>
     <x:row r="175" spans="1:10">
-      <x:c r="A175" s="0" t="s">
-        <x:v>377</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>378</x:v>
-      </x:c>
-      <x:c r="C175" s="0" t="s">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="D175" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A175" s="0" t="s"/>
+      <x:c r="B175" s="0" t="s"/>
+      <x:c r="C175" s="0" t="s"/>
+      <x:c r="D175" s="0" t="s"/>
       <x:c r="E175" s="0" t="s"/>
       <x:c r="F175" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G175" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="H175" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="I175" s="0" t="s"/>
       <x:c r="J175" s="0" t="s"/>
@@ -5315,514 +5298,18 @@
       <x:c r="B176" s="0" t="s"/>
       <x:c r="C176" s="0" t="s"/>
       <x:c r="D176" s="0" t="s"/>
-      <x:c r="E176" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E176" s="0" t="s"/>
       <x:c r="F176" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G176" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="H176" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="I176" s="0" t="s"/>
       <x:c r="J176" s="0" t="s"/>
-    </x:row>
-    <x:row r="177" spans="1:10">
-      <x:c r="A177" s="0" t="s"/>
-      <x:c r="B177" s="0" t="s"/>
-      <x:c r="C177" s="0" t="s"/>
-      <x:c r="D177" s="0" t="s"/>
-      <x:c r="E177" s="0" t="s">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="F177" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G177" s="0" t="s">
-        <x:v>363</x:v>
-      </x:c>
-      <x:c r="H177" s="0" t="s">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="I177" s="0" t="s"/>
-      <x:c r="J177" s="0" t="s"/>
-    </x:row>
-    <x:row r="178" spans="1:10">
-      <x:c r="A178" s="0" t="s"/>
-      <x:c r="B178" s="0" t="s"/>
-      <x:c r="C178" s="0" t="s"/>
-      <x:c r="D178" s="0" t="s"/>
-      <x:c r="E178" s="0" t="s">
-        <x:v>365</x:v>
-      </x:c>
-      <x:c r="F178" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G178" s="0" t="s">
-        <x:v>366</x:v>
-      </x:c>
-      <x:c r="H178" s="0" t="s">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="I178" s="0" t="s"/>
-      <x:c r="J178" s="0" t="s"/>
-    </x:row>
-    <x:row r="179" spans="1:10">
-      <x:c r="A179" s="0" t="s"/>
-      <x:c r="B179" s="0" t="s"/>
-      <x:c r="C179" s="0" t="s"/>
-      <x:c r="D179" s="0" t="s"/>
-      <x:c r="E179" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F179" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G179" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="H179" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="I179" s="0" t="s"/>
-      <x:c r="J179" s="0" t="s"/>
-    </x:row>
-    <x:row r="180" spans="1:10">
-      <x:c r="A180" s="0" t="s"/>
-      <x:c r="B180" s="0" t="s"/>
-      <x:c r="C180" s="0" t="s"/>
-      <x:c r="D180" s="0" t="s"/>
-      <x:c r="E180" s="0" t="s"/>
-      <x:c r="F180" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="G180" s="0" t="s">
-        <x:v>368</x:v>
-      </x:c>
-      <x:c r="H180" s="0" t="s">
-        <x:v>382</x:v>
-      </x:c>
-      <x:c r="I180" s="0" t="s"/>
-      <x:c r="J180" s="0" t="s"/>
-    </x:row>
-    <x:row r="181" spans="1:10">
-      <x:c r="A181" s="0" t="s">
-        <x:v>383</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>384</x:v>
-      </x:c>
-      <x:c r="C181" s="0" t="s">
-        <x:v>385</x:v>
-      </x:c>
-      <x:c r="D181" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E181" s="0" t="s"/>
-      <x:c r="F181" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G181" s="0" t="s">
-        <x:v>386</x:v>
-      </x:c>
-      <x:c r="H181" s="0" t="s">
-        <x:v>381</x:v>
-      </x:c>
-      <x:c r="I181" s="0" t="s"/>
-      <x:c r="J181" s="0" t="s"/>
-    </x:row>
-    <x:row r="182" spans="1:10">
-      <x:c r="A182" s="0" t="s"/>
-      <x:c r="B182" s="0" t="s"/>
-      <x:c r="C182" s="0" t="s"/>
-      <x:c r="D182" s="0" t="s"/>
-      <x:c r="E182" s="0" t="s"/>
-      <x:c r="F182" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G182" s="0" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="H182" s="0" t="s">
-        <x:v>388</x:v>
-      </x:c>
-      <x:c r="I182" s="0" t="s"/>
-      <x:c r="J182" s="0" t="s"/>
-    </x:row>
-    <x:row r="183" spans="1:10">
-      <x:c r="A183" s="0" t="s"/>
-      <x:c r="B183" s="0" t="s"/>
-      <x:c r="C183" s="0" t="s"/>
-      <x:c r="D183" s="0" t="s"/>
-      <x:c r="E183" s="0" t="s"/>
-      <x:c r="F183" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G183" s="0" t="s">
-        <x:v>389</x:v>
-      </x:c>
-      <x:c r="H183" s="0" t="s">
-        <x:v>390</x:v>
-      </x:c>
-      <x:c r="I183" s="0" t="s"/>
-      <x:c r="J183" s="0" t="s"/>
-    </x:row>
-    <x:row r="184" spans="1:10">
-      <x:c r="A184" s="0" t="s">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>392</x:v>
-      </x:c>
-      <x:c r="C184" s="0" t="s">
-        <x:v>393</x:v>
-      </x:c>
-      <x:c r="D184" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E184" s="0" t="s"/>
-      <x:c r="F184" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G184" s="0" t="s">
-        <x:v>394</x:v>
-      </x:c>
-      <x:c r="H184" s="0" t="s">
-        <x:v>395</x:v>
-      </x:c>
-      <x:c r="I184" s="0" t="s"/>
-      <x:c r="J184" s="0" t="s"/>
-    </x:row>
-    <x:row r="185" spans="1:10">
-      <x:c r="A185" s="0" t="s"/>
-      <x:c r="B185" s="0" t="s"/>
-      <x:c r="C185" s="0" t="s"/>
-      <x:c r="D185" s="0" t="s"/>
-      <x:c r="E185" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="F185" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G185" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="H185" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="I185" s="0" t="s"/>
-      <x:c r="J185" s="0" t="s"/>
-    </x:row>
-    <x:row r="186" spans="1:10">
-      <x:c r="A186" s="0" t="s"/>
-      <x:c r="B186" s="0" t="s"/>
-      <x:c r="C186" s="0" t="s"/>
-      <x:c r="D186" s="0" t="s"/>
-      <x:c r="E186" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F186" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G186" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H186" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="I186" s="0" t="s"/>
-      <x:c r="J186" s="0" t="s"/>
-    </x:row>
-    <x:row r="187" spans="1:10">
-      <x:c r="A187" s="0" t="s"/>
-      <x:c r="B187" s="0" t="s"/>
-      <x:c r="C187" s="0" t="s"/>
-      <x:c r="D187" s="0" t="s"/>
-      <x:c r="E187" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F187" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G187" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="H187" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="I187" s="0" t="s"/>
-      <x:c r="J187" s="0" t="s"/>
-    </x:row>
-    <x:row r="188" spans="1:10">
-      <x:c r="A188" s="0" t="s"/>
-      <x:c r="B188" s="0" t="s"/>
-      <x:c r="C188" s="0" t="s"/>
-      <x:c r="D188" s="0" t="s"/>
-      <x:c r="E188" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="F188" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G188" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="H188" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="I188" s="0" t="s"/>
-      <x:c r="J188" s="0" t="s"/>
-    </x:row>
-    <x:row r="189" spans="1:10">
-      <x:c r="A189" s="0" t="s"/>
-      <x:c r="B189" s="0" t="s"/>
-      <x:c r="C189" s="0" t="s"/>
-      <x:c r="D189" s="0" t="s"/>
-      <x:c r="E189" s="0" t="s"/>
-      <x:c r="F189" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="G189" s="0" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="H189" s="0" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="I189" s="0" t="s"/>
-      <x:c r="J189" s="0" t="s"/>
-    </x:row>
-    <x:row r="190" spans="1:10">
-      <x:c r="A190" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="C190" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="D190" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E190" s="0" t="s"/>
-      <x:c r="F190" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G190" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="H190" s="0" t="s">
-        <x:v>402</x:v>
-      </x:c>
-      <x:c r="I190" s="0" t="s"/>
-      <x:c r="J190" s="0" t="s"/>
-    </x:row>
-    <x:row r="191" spans="1:10">
-      <x:c r="A191" s="0" t="s"/>
-      <x:c r="B191" s="0" t="s"/>
-      <x:c r="C191" s="0" t="s"/>
-      <x:c r="D191" s="0" t="s"/>
-      <x:c r="E191" s="0" t="s"/>
-      <x:c r="F191" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G191" s="0" t="s">
-        <x:v>403</x:v>
-      </x:c>
-      <x:c r="H191" s="0" t="s">
-        <x:v>404</x:v>
-      </x:c>
-      <x:c r="I191" s="0" t="s"/>
-      <x:c r="J191" s="0" t="s"/>
-    </x:row>
-    <x:row r="192" spans="1:10">
-      <x:c r="A192" s="0" t="s">
-        <x:v>405</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="C192" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="D192" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E192" s="0" t="s"/>
-      <x:c r="F192" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G192" s="0" t="s">
-        <x:v>408</x:v>
-      </x:c>
-      <x:c r="H192" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-      <x:c r="I192" s="0" t="s"/>
-      <x:c r="J192" s="0" t="s"/>
-    </x:row>
-    <x:row r="193" spans="1:10">
-      <x:c r="A193" s="0" t="s"/>
-      <x:c r="B193" s="0" t="s"/>
-      <x:c r="C193" s="0" t="s"/>
-      <x:c r="D193" s="0" t="s"/>
-      <x:c r="E193" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="F193" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G193" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="H193" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="I193" s="0" t="s"/>
-      <x:c r="J193" s="0" t="s"/>
-    </x:row>
-    <x:row r="194" spans="1:10">
-      <x:c r="A194" s="0" t="s"/>
-      <x:c r="B194" s="0" t="s"/>
-      <x:c r="C194" s="0" t="s"/>
-      <x:c r="D194" s="0" t="s"/>
-      <x:c r="E194" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F194" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G194" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H194" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="I194" s="0" t="s"/>
-      <x:c r="J194" s="0" t="s"/>
-    </x:row>
-    <x:row r="195" spans="1:10">
-      <x:c r="A195" s="0" t="s"/>
-      <x:c r="B195" s="0" t="s"/>
-      <x:c r="C195" s="0" t="s"/>
-      <x:c r="D195" s="0" t="s"/>
-      <x:c r="E195" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F195" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G195" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="H195" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="I195" s="0" t="s"/>
-      <x:c r="J195" s="0" t="s"/>
-    </x:row>
-    <x:row r="196" spans="1:10">
-      <x:c r="A196" s="0" t="s"/>
-      <x:c r="B196" s="0" t="s"/>
-      <x:c r="C196" s="0" t="s"/>
-      <x:c r="D196" s="0" t="s"/>
-      <x:c r="E196" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="F196" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G196" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="H196" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="I196" s="0" t="s"/>
-      <x:c r="J196" s="0" t="s"/>
-    </x:row>
-    <x:row r="197" spans="1:10">
-      <x:c r="A197" s="0" t="s"/>
-      <x:c r="B197" s="0" t="s"/>
-      <x:c r="C197" s="0" t="s"/>
-      <x:c r="D197" s="0" t="s"/>
-      <x:c r="E197" s="0" t="s"/>
-      <x:c r="F197" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="G197" s="0" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="H197" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
-      <x:c r="I197" s="0" t="s"/>
-      <x:c r="J197" s="0" t="s"/>
-    </x:row>
-    <x:row r="198" spans="1:10">
-      <x:c r="A198" s="0" t="s">
-        <x:v>411</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>412</x:v>
-      </x:c>
-      <x:c r="C198" s="0" t="s">
-        <x:v>413</x:v>
-      </x:c>
-      <x:c r="D198" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E198" s="0" t="s"/>
-      <x:c r="F198" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G198" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="H198" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-      <x:c r="I198" s="0" t="s"/>
-      <x:c r="J198" s="0" t="s"/>
-    </x:row>
-    <x:row r="199" spans="1:10">
-      <x:c r="A199" s="0" t="s"/>
-      <x:c r="B199" s="0" t="s"/>
-      <x:c r="C199" s="0" t="s"/>
-      <x:c r="D199" s="0" t="s"/>
-      <x:c r="E199" s="0" t="s"/>
-      <x:c r="F199" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G199" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-      <x:c r="H199" s="0" t="s">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="I199" s="0" t="s"/>
-      <x:c r="J199" s="0" t="s"/>
-    </x:row>
-    <x:row r="200" spans="1:10">
-      <x:c r="A200" s="0" t="s"/>
-      <x:c r="B200" s="0" t="s"/>
-      <x:c r="C200" s="0" t="s"/>
-      <x:c r="D200" s="0" t="s"/>
-      <x:c r="E200" s="0" t="s"/>
-      <x:c r="F200" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G200" s="0" t="s">
-        <x:v>417</x:v>
-      </x:c>
-      <x:c r="H200" s="0" t="s">
-        <x:v>418</x:v>
-      </x:c>
-      <x:c r="I200" s="0" t="s"/>
-      <x:c r="J200" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
